--- a/medicine/Enfance/Arnaud_Poitevin/Arnaud_Poitevin.xlsx
+++ b/medicine/Enfance/Arnaud_Poitevin/Arnaud_Poitevin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arnaud Poitevin, né le 26 janvier 1974 à Tours, est un illustrateur et un dessinateur français de bandes dessinées. 
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Élève de l'école de publicité de Tours, puis des Gobelins à Paris, Arnaud Poitevin se consacre en premier lieu au dessin de presse et à l'illustration pour enfants. Il publie de nombreux dessins dans les magazines J'aime lire et Spirou. Il sort un premier album en 2005, Orge l'ogre, sur un scénario de Yeb, puis, en compagnie du scénariste Régis Hautière, il se lance dans une série sur l'épopée de la croisière jaune, dont le premier tome Un nouveau départ, est publié au début de l'année 2010. 
 En 2016 sort le premier tome d'une nouvelle BD, Les Spectaculaires, avec Régis Hautière au scénario. Le sixième tome paraît en 2023.
-En 2024 est publié un préquel de la série Les Spectaculaires, intitulée Les Pestaculaires avec le tome 1 L'Âge tendre. Pour Télérama : « Régis Hautière et Arnaud Poitevin donnent ici un préquel à leur série Les Spectaculaires, qui met en scène une troupe d’artistes de cirque justiciers. On découvre donc ici comment ces futurs héros se sont rencontrés [...] Par un scénario simple mais d’une redoutable efficacité, et un dessin vif et caricatural juste ce qu’il faut, Les Pestaculaires s’affirment en quelques pages comme une comédie enfantine pétillante, dans le beau décor d’un Paris historique[1] ».
+En 2024 est publié un préquel de la série Les Spectaculaires, intitulée Les Pestaculaires avec le tome 1 L'Âge tendre. Pour Télérama : « Régis Hautière et Arnaud Poitevin donnent ici un préquel à leur série Les Spectaculaires, qui met en scène une troupe d’artistes de cirque justiciers. On découvre donc ici comment ces futurs héros se sont rencontrés [...] Par un scénario simple mais d’une redoutable efficacité, et un dessin vif et caricatural juste ce qu’il faut, Les Pestaculaires s’affirment en quelques pages comme une comédie enfantine pétillante, dans le beau décor d’un Paris historique ».
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2005 : Orge l'ogre, Yeb (scénario), Arnaud Poitevin (dessin), Panini Comics, 29 p.  (ISBN 2-84538-400-9)
 2010 : Le Marin, l'Actrice et la Croisière jaune - t. 1 : Un nouveau départ, Régis Hautière (scénario), Arnaud Poitevin (dessin), Christophe Bouchard (couleur), Quadrants, 48 p.  (ISBN 978-2-302-00979-0)
